--- a/N related.xlsx
+++ b/N related.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guozhenning/Desktop/VSCodeProjects/BioChemComprehensiveHW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BB3CE0-AC5B-074C-B523-374B1C164DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA97A65-C4FA-D64E-9D4C-CF50CB9A5D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="740" windowWidth="19420" windowHeight="17260" xr2:uid="{BE01D711-1010-4EA0-A063-87746B47415A}"/>
   </bookViews>

--- a/N related.xlsx
+++ b/N related.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guozhenning/Desktop/VSCodeProjects/BioChemComprehensiveHW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90C9D506-E595-9F44-B2B1-A9896A043067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08820560-04AB-0841-A683-971A20E96A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="1700" windowWidth="19420" windowHeight="17260" xr2:uid="{BE01D711-1010-4EA0-A063-87746B47415A}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" firstSheet="1" activeTab="7" xr2:uid="{BE01D711-1010-4EA0-A063-87746B47415A}"/>
   </bookViews>
   <sheets>
     <sheet name="Carbonhydrates" sheetId="12" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Nucleotides" sheetId="15" r:id="rId4"/>
     <sheet name="special abbreviation" sheetId="3" r:id="rId5"/>
     <sheet name="regulation" sheetId="11" r:id="rId6"/>
+    <sheet name="molecule SMILES" sheetId="16" r:id="rId7"/>
+    <sheet name="enzyme EC" sheetId="17" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="1676">
   <si>
     <t>Pathway</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3711,13 +3713,2089 @@
   <si>
     <t>multiple enzeme</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Substance</t>
+  </si>
+  <si>
+    <t>SMILES</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>1,3-bisphosphoglycerate</t>
+  </si>
+  <si>
+    <t>C([C@H](C(=O)OP(=O)(O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/439191</t>
+  </si>
+  <si>
+    <t>2-phosphoglycerate</t>
+  </si>
+  <si>
+    <t>C(C(C(=O)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/59</t>
+  </si>
+  <si>
+    <t>3-phosphoglycerate</t>
+  </si>
+  <si>
+    <t>C(C(C(=O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/724</t>
+  </si>
+  <si>
+    <t>6-phosphogluconate</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H]([C@@H]([C@H](C(=O)O)O)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/91493</t>
+  </si>
+  <si>
+    <t>6-phosphogluconolactone</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H](C(=O)O1)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/439452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phosphogluconolactone </t>
+  </si>
+  <si>
+    <t>7,8-dihydrofolate</t>
+  </si>
+  <si>
+    <t>C1C(=NC2=C(N1)N=C(NC2=O)N)CNC3=CC=C(C=C3)C(=O)N[C@@H](CCC(=O)[O-])C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398603</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>C1=NC(=C2C(=N1)N(C=N2)[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)OP(=O)(O)O)O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6022</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>C1=NC(=C2C(=N1)N(C=N2)[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)O)O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6083</t>
+  </si>
+  <si>
+    <t>C1=NC(=C2C(=N1)N(C=N2)[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)OP(=O)(O)OP(=O)(O)O)O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5957</t>
+  </si>
+  <si>
+    <t>CDP</t>
+  </si>
+  <si>
+    <t>C1=CN(C(=O)N=C1N)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)OP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6132</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>C(=O)=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/280</t>
+  </si>
+  <si>
+    <t>CTP</t>
+  </si>
+  <si>
+    <t>C1=CN(C(=O)N=C1N)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)OP(=O)(O)OP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6176</t>
+  </si>
+  <si>
+    <t>CoA</t>
+  </si>
+  <si>
+    <t>CC(C)(COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)[C@H](C(=O)NCCC(=O)NCCS)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/87642</t>
+  </si>
+  <si>
+    <t>CoA-SH</t>
+  </si>
+  <si>
+    <t>C[C@H](CC(=O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/92135</t>
+  </si>
+  <si>
+    <t>D-methylmalonyl-CoA</t>
+  </si>
+  <si>
+    <t>C[C@@H](C(=O)O)C(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/11966111</t>
+  </si>
+  <si>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>CC1=CC2=C(C=C1C)N(C3=NC(=O)NC(=O)C3=N2)C[C@@H]([C@@H]([C@@H](COP(=O)(O)OP(=O)(O)OC[C@@H]4[C@H]([C@H]([C@@H](O4)N5C=NC6=C(N=CN=C65)N)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/643975</t>
+  </si>
+  <si>
+    <t>FADH2</t>
+  </si>
+  <si>
+    <t>CC1=CC2=C(C=C1C)N(C3=C(N2)C(=O)NC(=O)N3)C[C@@H]([C@@H]([C@@H](COP(=O)(O)OP(=O)(O)OC[C@@H]4[C@H]([C@H]([C@@H](O4)N5C=NC6=C(N=CN=C65)N)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/446013</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)OP(=O)(O)O)O)O)N=C(NC2=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398619</t>
+  </si>
+  <si>
+    <t>GMP</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)O)O)O)N=C(NC2=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398631</t>
+  </si>
+  <si>
+    <t>GTP</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)OP(=O)(O)OP(=O)(O)O)O)O)N=C(NC2=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398633</t>
+  </si>
+  <si>
+    <t>H+</t>
+  </si>
+  <si>
+    <t>[H+]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1038</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/962</t>
+  </si>
+  <si>
+    <t>H2O2</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/784</t>
+  </si>
+  <si>
+    <t>HCO3-</t>
+  </si>
+  <si>
+    <t>C(=O)(O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/769</t>
+  </si>
+  <si>
+    <t>HMG-CoA</t>
+  </si>
+  <si>
+    <t>C[C@](CC(=O)O)(CC(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/445127</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(C(=O)N1)N=CN2[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398640</t>
+  </si>
+  <si>
+    <t>L-malate</t>
+  </si>
+  <si>
+    <t>C([C@@H](C(=O)[O-])O)C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5459792</t>
+  </si>
+  <si>
+    <t>L-methylmalonyl-CoA</t>
+  </si>
+  <si>
+    <t>C[C@H](C(=O)O)C(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/449534</t>
+  </si>
+  <si>
+    <t>Linoleoyl-CoA</t>
+  </si>
+  <si>
+    <t>CCCCC/C=C\C/C=C\CCCCCCCC(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5497112</t>
+  </si>
+  <si>
+    <t>N-carbamoylaspartate</t>
+  </si>
+  <si>
+    <t>C([C@@H](C(=O)O)NC(=O)N)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/93072</t>
+  </si>
+  <si>
+    <t>N10-formyltetrahydrofolate</t>
+  </si>
+  <si>
+    <t>C1C(NC2=C(N1)N=C(NC2=O)N)CN(C=O)C3=CC=C(C=C3)C(=O)N[C@@H](CCC(=O)O)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135450591</t>
+  </si>
+  <si>
+    <t>NAD+</t>
+  </si>
+  <si>
+    <t>C1=CC(=C[N+](=C1)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)([O-])OP(=O)(O)OC[C@@H]3[C@H]([C@H]([C@@H](O3)N4C=NC5=C(N=CN=C54)N)O)O)O)O)C(=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5892</t>
+  </si>
+  <si>
+    <t>NADH</t>
+  </si>
+  <si>
+    <t>C1C=CN(C=C1C(=O)N)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)OP(=O)(O)OC[C@@H]3[C@H]([C@H]([C@@H](O3)N4C=NC5=C(N=CN=C54)N)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/439153</t>
+  </si>
+  <si>
+    <t>NADP+</t>
+  </si>
+  <si>
+    <t>C1=CC(=C[N+](=C1)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)([O-])OP(=O)(O)OC[C@@H]3[C@H]([C@H]([C@@H](O3)N4C=NC5=C(N=CN=C54)N)OP(=O)(O)O)O)O)O)C(=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5885</t>
+  </si>
+  <si>
+    <t>NADPH</t>
+  </si>
+  <si>
+    <t>C1C=CN(C=C1C(=O)N)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)OP(=O)(O)OC[C@@H]3[C@H]([C@H]([C@@H](O3)N4C=NC5=C(N=CN=C54)N)OP(=O)(O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5884</t>
+  </si>
+  <si>
+    <t>NDP</t>
+  </si>
+  <si>
+    <t>C1=CC=C2C(=CC=C(C2=C1)CCC(=O)[O-])CCC(=O)[O-].[Na+].[Na+]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/2762669</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/222</t>
+  </si>
+  <si>
+    <t>NH4+</t>
+  </si>
+  <si>
+    <t>[NH4+]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/223</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/977</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>C=C(C(=O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1005</t>
+  </si>
+  <si>
+    <t>PRPP</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@H]([C@H](O1)OP(=O)(O)OP(=O)(O)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/7339</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>C1=CN(C(=O)NC1=O)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)OP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6031</t>
+  </si>
+  <si>
+    <t>UDP-glucose</t>
+  </si>
+  <si>
+    <t>C1=CN(C(=O)NC1=O)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)OP(=O)(O)O[C@@H]3[C@@H]([C@H]([C@@H]([C@H](O3)CO)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/8629</t>
+  </si>
+  <si>
+    <t>UMP</t>
+  </si>
+  <si>
+    <t>C1=CN(C(=O)NC1=O)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6030</t>
+  </si>
+  <si>
+    <t>UTP</t>
+  </si>
+  <si>
+    <t>C1=CN(C(=O)NC1=O)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)OP(=O)(O)OP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6133</t>
+  </si>
+  <si>
+    <t>XMP</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)O)O)O)NC(=O)NC2=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/73323</t>
+  </si>
+  <si>
+    <t>acetoacetate</t>
+  </si>
+  <si>
+    <t>CC(=O)CC(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6971017</t>
+  </si>
+  <si>
+    <t>acetoacetyl-CoA</t>
+  </si>
+  <si>
+    <t>CC(=O)CC(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/92153</t>
+  </si>
+  <si>
+    <t>acetone</t>
+  </si>
+  <si>
+    <t>CC(=O)C</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/180</t>
+  </si>
+  <si>
+    <t>CC(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/444493</t>
+  </si>
+  <si>
+    <t>adenosine</t>
+  </si>
+  <si>
+    <t>C1=NC(=C2C(=N1)N(C=N2)[C@H]3[C@@H]([C@@H]([C@H](O3)CO)O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/60961</t>
+  </si>
+  <si>
+    <t>adenylosuccinate</t>
+  </si>
+  <si>
+    <t>C1=NC(=C2C(=N1)N(C=N2)C3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)OC(=O)CCC(=O)O)O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/121897</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>C[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5950</t>
+  </si>
+  <si>
+    <t>allantoate</t>
+  </si>
+  <si>
+    <t>C(C(=O)[O-])(NC(=O)N)NC(=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5287444</t>
+  </si>
+  <si>
+    <t>allantoin</t>
+  </si>
+  <si>
+    <t>C1(C(=O)NC(=O)N1)NC(=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/204</t>
+  </si>
+  <si>
+    <t>alpha-ketoglutarate</t>
+  </si>
+  <si>
+    <t>C(CC(=O)[O-])C(=O)C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/164533</t>
+  </si>
+  <si>
+    <t>arginine</t>
+  </si>
+  <si>
+    <t>C(C[C@@H](C(=O)O)N)CN=C(N)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6322</t>
+  </si>
+  <si>
+    <t>argininosuccinate</t>
+  </si>
+  <si>
+    <t>C(CC(C(=O)O)N)CN=C(N)NC(CC(=O)O)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/828</t>
+  </si>
+  <si>
+    <t>asparagine</t>
+  </si>
+  <si>
+    <t>C([C@@H](C(=O)O)N)C(=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6267</t>
+  </si>
+  <si>
+    <t>aspartate</t>
+  </si>
+  <si>
+    <t>C([C@@H](C(=O)O)N)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5960</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>EC 2.6.1.19</t>
+  </si>
+  <si>
+    <t>glutamine synthetase</t>
+  </si>
+  <si>
+    <t>glutaminase</t>
+  </si>
+  <si>
+    <t>EC 4.3.3.6</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q03144/entry</t>
+  </si>
+  <si>
+    <t>EC 2.6.1.2</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P13191/entry</t>
+  </si>
+  <si>
+    <t>aspartate aminotransferase</t>
+  </si>
+  <si>
+    <t>EC 2.6.1.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q95VP1/entry</t>
+  </si>
+  <si>
+    <t>EC 1.4.1.2</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P50735/entry</t>
+  </si>
+  <si>
+    <t>EC 6.3.4.16</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q3S2E9/entry</t>
+  </si>
+  <si>
+    <t>EC 2.1.3.3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q936V7/entry</t>
+  </si>
+  <si>
+    <t>EC 6.3.4.5</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P14568/entry</t>
+  </si>
+  <si>
+    <t>EC 4.3.2.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/B8LIT8/entry</t>
+  </si>
+  <si>
+    <t>EC 3.5.3.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P39138/entry</t>
+  </si>
+  <si>
+    <t>branched-chain aminotransferase</t>
+  </si>
+  <si>
+    <t>EC 2.6.1.42</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9R170/entry</t>
+  </si>
+  <si>
+    <t>branched-chain α-keto acid dehydrogenase complex</t>
+  </si>
+  <si>
+    <t>EC 1.2.4.4</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9UMB3/entry</t>
+  </si>
+  <si>
+    <t>adenylosuccinate synthetase</t>
+  </si>
+  <si>
+    <t>EC 6.3.4.4</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9U8D3/entry</t>
+  </si>
+  <si>
+    <t>IMP dehydrogenase</t>
+  </si>
+  <si>
+    <t>carbamoyl phosphate synthetase II</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/O15829/entry</t>
+  </si>
+  <si>
+    <t>ATCase</t>
+  </si>
+  <si>
+    <t>UniProt:P08955</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P08955/entry</t>
+  </si>
+  <si>
+    <t>kinases</t>
+  </si>
+  <si>
+    <t>EC 2.7.10.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P35968/entry</t>
+  </si>
+  <si>
+    <t>ribonucleotide reductase</t>
+  </si>
+  <si>
+    <t>EC 1.1.98.6</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P07071/entry</t>
+  </si>
+  <si>
+    <t>nucleoside diphosphate kinase</t>
+  </si>
+  <si>
+    <t>deaminase</t>
+  </si>
+  <si>
+    <t>EC 3.5.4.-</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P0DUH5/entry</t>
+  </si>
+  <si>
+    <t>dUTPase</t>
+  </si>
+  <si>
+    <t>EC 3.6.1.23</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A8S5RH02/entry</t>
+  </si>
+  <si>
+    <t>thymidylate synthase</t>
+  </si>
+  <si>
+    <t>EC 2.1.1.-</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q58167/entry</t>
+  </si>
+  <si>
+    <t>dihydrofolate reductase</t>
+  </si>
+  <si>
+    <t>EC 1.5.1.3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P95524/entry</t>
+  </si>
+  <si>
+    <t>serine hydroxymethyltransferase</t>
+  </si>
+  <si>
+    <t>EC 2.1.2.-</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9UWT5/entry</t>
+  </si>
+  <si>
+    <t>5'-nucleotidase</t>
+  </si>
+  <si>
+    <t>EC 3.1.3.5</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q2LE75/entry</t>
+  </si>
+  <si>
+    <t>nucleosidase</t>
+  </si>
+  <si>
+    <t>EC 3.2.2.30</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9ZMY2/entry</t>
+  </si>
+  <si>
+    <t>guanine deaminase</t>
+  </si>
+  <si>
+    <t>EC 3.5.4.3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A8B6X6P4/entry</t>
+  </si>
+  <si>
+    <t>adenosine deaminase</t>
+  </si>
+  <si>
+    <t>xanthine oxidase</t>
+  </si>
+  <si>
+    <t>UniProt:A0A7G1GET8</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A7G1GET8/entry</t>
+  </si>
+  <si>
+    <t>urate oxidase</t>
+  </si>
+  <si>
+    <t>UniProt:O32141</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/O32141/entry</t>
+  </si>
+  <si>
+    <t>allantoinase</t>
+  </si>
+  <si>
+    <t>EC 3.5.2.5</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9S8P7/entry</t>
+  </si>
+  <si>
+    <t>allantoicase</t>
+  </si>
+  <si>
+    <t>UniProt:Q8MVS1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q8MVS1/entry</t>
+  </si>
+  <si>
+    <t>urease</t>
+  </si>
+  <si>
+    <t>dihydrouracil dehydrogenase</t>
+  </si>
+  <si>
+    <t>UniProt:A0A8D0GSW7</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A8D0GSW7/entry</t>
+  </si>
+  <si>
+    <t>dihydropyrimidinase</t>
+  </si>
+  <si>
+    <t>EC 3.5.2.2</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q14117/entry</t>
+  </si>
+  <si>
+    <t>EC 2.7.1.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q969A8/entry</t>
+  </si>
+  <si>
+    <t>EC 5.3.1.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/C8CJY7/entry</t>
+  </si>
+  <si>
+    <t>EC 1.2.1.12</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9N2D5/entry</t>
+  </si>
+  <si>
+    <t>EC 2.7.2.3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P14828/entry</t>
+  </si>
+  <si>
+    <t>EC 5.4.2.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/D9Q2G6/entry</t>
+  </si>
+  <si>
+    <t>EC 2.7.1.40</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A2U9I6M5/entry</t>
+  </si>
+  <si>
+    <t>EC 2.3.3.-</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P45858/entry</t>
+  </si>
+  <si>
+    <t>EC 4.2.1.3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P09339/entry</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.42</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A075H019/entry</t>
+  </si>
+  <si>
+    <t>EC 6.2.1.5</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/B3FHP0/entry</t>
+  </si>
+  <si>
+    <t>EC 4.2.1.2</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P10173/entry</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.37</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q5XX75/entry</t>
+  </si>
+  <si>
+    <t>EC 6.4.1.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9HES8/entry</t>
+  </si>
+  <si>
+    <t>EC 3.1.3.9</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/E3VWM9/entry</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.49</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/B7P028/entry</t>
+  </si>
+  <si>
+    <t>lactonase</t>
+  </si>
+  <si>
+    <t>EC 3.1.1.81</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A5JJ58/entry</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.44</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q6TUM2/entry</t>
+  </si>
+  <si>
+    <t>UniProt:Q6RY01</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q6RY01/entry</t>
+  </si>
+  <si>
+    <t>EC 2.4.1.11</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A286SDK9/entry</t>
+  </si>
+  <si>
+    <t>glycogen phosphorylase</t>
+  </si>
+  <si>
+    <t>EC 2.4.1.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A286SDL8/entry</t>
+  </si>
+  <si>
+    <t>3-phosphoglycerate kinase</t>
+  </si>
+  <si>
+    <t>glyceraldehyde 3-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t>EC 1.2.1.-</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/D7UNZ7/entry</t>
+  </si>
+  <si>
+    <t>phosphoribulokinase</t>
+  </si>
+  <si>
+    <t>EC 2.7.1.19</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P26302/entry</t>
+  </si>
+  <si>
+    <t>isocitrate lyase</t>
+  </si>
+  <si>
+    <t>EC 4.1.3.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q5FBD5/entry</t>
+  </si>
+  <si>
+    <t>malate synthase</t>
+  </si>
+  <si>
+    <t>EC 2.3.3.9</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q937W7/entry</t>
+  </si>
+  <si>
+    <t>glycerol kinase</t>
+  </si>
+  <si>
+    <t>glycerol 3-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.8</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A3Q8WI14/entry</t>
+  </si>
+  <si>
+    <t>triose phosphate isomerase</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P48497/entry</t>
+  </si>
+  <si>
+    <t>fatty acyl-CoA synthetase</t>
+  </si>
+  <si>
+    <t>UniProt:Q96337</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q96337/entry</t>
+  </si>
+  <si>
+    <t>EC 1.3.99.-</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P9WQG3/entry</t>
+  </si>
+  <si>
+    <t>EC 4.2.1.17</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P76082/entry</t>
+  </si>
+  <si>
+    <t>UniProt:Q93FC5</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q93FC5/entry</t>
+  </si>
+  <si>
+    <t>UniProt:G7QYD1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/G7QYD1/entry</t>
+  </si>
+  <si>
+    <t>delta3, delta2-enoyl-CoA isomerase</t>
+  </si>
+  <si>
+    <t>EC 5.3.3.8</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q64592/entry</t>
+  </si>
+  <si>
+    <t>2,4-dienoyl-CoA reductase</t>
+  </si>
+  <si>
+    <t>UniProt:C5MQH0</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/C5MQH0/entry</t>
+  </si>
+  <si>
+    <t>propionyl-CoA carboxylase</t>
+  </si>
+  <si>
+    <t>EC 6.4.1.3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P81185/entry</t>
+  </si>
+  <si>
+    <t>methylmalonyl-CoA mutase</t>
+  </si>
+  <si>
+    <t>EC 5.4.99.2</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P11653/entry</t>
+  </si>
+  <si>
+    <t>thiolase</t>
+  </si>
+  <si>
+    <t>EC 2.3.1.174</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P0C7L2/entry</t>
+  </si>
+  <si>
+    <t>HMG-CoA synthase</t>
+  </si>
+  <si>
+    <t>HMG-CoA lyase</t>
+  </si>
+  <si>
+    <t>EC 4.1.3.4</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A484Q213/entry</t>
+  </si>
+  <si>
+    <t>acetoacetate decarboxylase</t>
+  </si>
+  <si>
+    <t>UniProt:A0A6J7GK34</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A6J7GK34/entry</t>
+  </si>
+  <si>
+    <t>D-beta-hydroxybutyrate dehydrogenase</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.30</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9XDL3/entry</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>citrate lyase</t>
+  </si>
+  <si>
+    <t>EC 6.2.1.22</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P45410/entry</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.375</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q60176/entry</t>
+  </si>
+  <si>
+    <t>UniProt:Q3LR75</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q3LR75/entry</t>
+  </si>
+  <si>
+    <t>acyl transferase</t>
+  </si>
+  <si>
+    <t>EC 2.3.1.84</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/E9P8C9/entry</t>
+  </si>
+  <si>
+    <t>HMG-CoA reductase</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.34</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9SWQ3/entry</t>
+  </si>
+  <si>
+    <t>desmolase</t>
+  </si>
+  <si>
+    <t>UniProt:Q6LCX9</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q6LCX9/entry</t>
+  </si>
+  <si>
+    <t>5-phospho-β-D-ribosylamine</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@H](C(O1)N)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/3082052</t>
+  </si>
+  <si>
+    <t>H4 folate</t>
+  </si>
+  <si>
+    <t>C1C(NC2=C(N1)N=C(NC2=O)N)CNC3=CC=C(C=C3)C(=O)N[C@@H](CCC(=O)O)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135444742</t>
+  </si>
+  <si>
+    <t>Linoleate 18:2 (delta9, 12)</t>
+  </si>
+  <si>
+    <t>CCCCC/C=C\C/C=C\CCCCCCCC(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5280450</t>
+  </si>
+  <si>
+    <t>PPi</t>
+  </si>
+  <si>
+    <t>[O-]P(=O)([O-])OP(=O)([O-])[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/644102</t>
+  </si>
+  <si>
+    <t>Pi</t>
+  </si>
+  <si>
+    <t>OP(=O)(O)O  </t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1004</t>
+  </si>
+  <si>
+    <t>alpha-linolenate 18:3 (delta9, 12, 15)</t>
+  </si>
+  <si>
+    <t>CC/C=C\C/C=C\C/C=C\CCCCCCCC(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5280934</t>
+  </si>
+  <si>
+    <t>carbamoyl phosphate</t>
+  </si>
+  <si>
+    <t>C(=O)(N)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/278</t>
+  </si>
+  <si>
+    <t>carnitine</t>
+  </si>
+  <si>
+    <t>C[N+](C)(C)CC(CC(=O)[O-])O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/288</t>
+  </si>
+  <si>
+    <t>cholesterol</t>
+  </si>
+  <si>
+    <t>C[C@H](CCCC(C)C)[C@H]1CC[C@@H]2[C@@]1(CC[C@H]3[C@H]2CC=C4[C@@]3(CC[C@@H](C4)O)C)C</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5997</t>
+  </si>
+  <si>
+    <t>C(C(=O)[O-])C(CC(=O)[O-])(C(=O)[O-])O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/31348</t>
+  </si>
+  <si>
+    <t>citrulline</t>
+  </si>
+  <si>
+    <t>C(C[C@@H](C(=O)O)N)CNC(=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/9750</t>
+  </si>
+  <si>
+    <t>cysteine</t>
+  </si>
+  <si>
+    <t>C([C@@H](C(=O)O)N)S</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5862</t>
+  </si>
+  <si>
+    <t>cytidine</t>
+  </si>
+  <si>
+    <t>C1=CN(C(=O)N=C1N)[C@H]2[C@@H]([C@@H]([C@H](O2)CO)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6175</t>
+  </si>
+  <si>
+    <t>dCDP</t>
+  </si>
+  <si>
+    <t>C1[C@@H]([C@H](O[C@H]1N2C=CC(=NC2=O)N)COP(=O)(O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/150855</t>
+  </si>
+  <si>
+    <t>dCTP</t>
+  </si>
+  <si>
+    <t>C1[C@@H]([C@H](O[C@H]1N2C=CC(=NC2=O)N)COP(=O)(O)OP(=O)(O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/65091</t>
+  </si>
+  <si>
+    <t>dTMP</t>
+  </si>
+  <si>
+    <t>CC1=CN(C(=O)NC1=O)[C@H]2C[C@@H]([C@H](O2)COP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/9700</t>
+  </si>
+  <si>
+    <t>dUDP</t>
+  </si>
+  <si>
+    <t>C1[C@@H]([C@H](O[C@H]1N2C=CC(=O)NC2=O)COP(=O)(O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/145729</t>
+  </si>
+  <si>
+    <t>dUMP</t>
+  </si>
+  <si>
+    <t>C1[C@@H]([C@H](O[C@H]1N2C=CC(=O)NC2=O)COP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/65063</t>
+  </si>
+  <si>
+    <t>dUTP</t>
+  </si>
+  <si>
+    <t>C1[C@@H]([C@H](O[C@H]1N2C=CC(=O)NC2=O)COP(=O)(O)OP(=O)(O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/65070</t>
+  </si>
+  <si>
+    <t>dihydrothymine</t>
+  </si>
+  <si>
+    <t>CC1CNC(=O)NC1=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/93556</t>
+  </si>
+  <si>
+    <t>dihydroxyacetone phosphate</t>
+  </si>
+  <si>
+    <t>C(C(=O)COP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/668</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@@H](O1)COP(=O)(O)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/445555</t>
+  </si>
+  <si>
+    <t>fructose 6-phosphate</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H]([C@@H](C(=O)CO)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/69507</t>
+  </si>
+  <si>
+    <t>fumarate</t>
+  </si>
+  <si>
+    <t>C(=C/C(=O)[O-])\C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5460307</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H](C(O1)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5793</t>
+  </si>
+  <si>
+    <t>glucose 1-phosphate</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H](C(O1)OP(=O)(O)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/439165</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H](C(O1)O)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5958</t>
+  </si>
+  <si>
+    <t>glutamate</t>
+  </si>
+  <si>
+    <t>C(CC(=O)O)[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/33032</t>
+  </si>
+  <si>
+    <t>glutamine</t>
+  </si>
+  <si>
+    <t>C(CC(=O)N)[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5961</t>
+  </si>
+  <si>
+    <t>C(C(C=O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/729</t>
+  </si>
+  <si>
+    <t>glycerol</t>
+  </si>
+  <si>
+    <t>C(C(CO)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/753</t>
+  </si>
+  <si>
+    <t>glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>C(C(COP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/754</t>
+  </si>
+  <si>
+    <t>glycine</t>
+  </si>
+  <si>
+    <t>C(C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/750</t>
+  </si>
+  <si>
+    <t>glyoxylate</t>
+  </si>
+  <si>
+    <t>C(=O)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/760</t>
+  </si>
+  <si>
+    <t>guanine</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1)C(=O)NC(=N2)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398634</t>
+  </si>
+  <si>
+    <t>guanosine</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1[C@H]3[C@@H]([C@@H]([C@H](O3)CO)O)O)N=C(NC2=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398635</t>
+  </si>
+  <si>
+    <t>histidine</t>
+  </si>
+  <si>
+    <t>C1=C(NC=N1)C[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6274</t>
+  </si>
+  <si>
+    <t>hypoxanthine</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1)C(=O)NC=N2</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398638</t>
+  </si>
+  <si>
+    <t>inosine</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(C(=O)N1)N=CN2[C@H]3[C@@H]([C@@H]([C@H](O3)CO)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398641</t>
+  </si>
+  <si>
+    <t>isocaproaldehyde</t>
+  </si>
+  <si>
+    <t>CC(C)CCC=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/129</t>
+  </si>
+  <si>
+    <t>isocitrate</t>
+  </si>
+  <si>
+    <t>C(C(C(C(=O)O)O)C(=O)O)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1198</t>
+  </si>
+  <si>
+    <t>isoleucine</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lactate </t>
+  </si>
+  <si>
+    <t>CC(C(=O)[O-])O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/91435</t>
+  </si>
+  <si>
+    <t>leucine</t>
+  </si>
+  <si>
+    <t>CC(C)C[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6106</t>
+  </si>
+  <si>
+    <t>lysine</t>
+  </si>
+  <si>
+    <t>C(CCN)C[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5962</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>C(C(C(=O)[O-])O)C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/160434</t>
+  </si>
+  <si>
+    <t>malonyl-CoA</t>
+  </si>
+  <si>
+    <t>CC(C)(COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)[C@H](C(=O)NCCC(=O)NCCSC(=O)CC(=O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/644066</t>
+  </si>
+  <si>
+    <t>methionine</t>
+  </si>
+  <si>
+    <t>CSCC[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6137</t>
+  </si>
+  <si>
+    <t>mevalonate</t>
+  </si>
+  <si>
+    <t>CC(CCO)(CC(=O)[O-])O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/4478250</t>
+  </si>
+  <si>
+    <t>nicotinate</t>
+  </si>
+  <si>
+    <t>C1=CC(=CN=C1)C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/937</t>
+  </si>
+  <si>
+    <t>oleate 18:1 (delta9)</t>
+  </si>
+  <si>
+    <t>CCCCCCCC/C=C\CCCCCCCC(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/445639</t>
+  </si>
+  <si>
+    <t>oleoyl-CoA</t>
+  </si>
+  <si>
+    <t>CCCCCCCC/C=C\CCCCCCCC(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5497111</t>
+  </si>
+  <si>
+    <t>ornithine</t>
+  </si>
+  <si>
+    <t>C(C[C@@H](C(=O)O)N)CN</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6262</t>
+  </si>
+  <si>
+    <t>orotate</t>
+  </si>
+  <si>
+    <t>C1=C(NC(=O)NC1=O)C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1492348</t>
+  </si>
+  <si>
+    <t>C(C(=O)C(=O)O)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/970</t>
+  </si>
+  <si>
+    <t>palmitate 16:0</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCC(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/504166</t>
+  </si>
+  <si>
+    <t>palmitoleate 16:1 (delta9)</t>
+  </si>
+  <si>
+    <t>CCCCCC/C=C\CCCCCCCC(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/445638</t>
+  </si>
+  <si>
+    <t>palmitoyl-CoA (C16)</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCC(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/644109</t>
+  </si>
+  <si>
+    <t>phenylacetate</t>
+  </si>
+  <si>
+    <t>C1=CC=C(C=C1)CC(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/4409936</t>
+  </si>
+  <si>
+    <t>phenylalanine</t>
+  </si>
+  <si>
+    <t>C1=CC=C(C=C1)C[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6140</t>
+  </si>
+  <si>
+    <t>phenylpyruvate</t>
+  </si>
+  <si>
+    <t>C1=CC=C(C=C1)CC(=O)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/997</t>
+  </si>
+  <si>
+    <t>phosphatidic acid</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCC(=O)OC[C@H](COP(=O)(O)O)OC(=O)CCCCCCCCCCCCCCC</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/446066</t>
+  </si>
+  <si>
+    <t>pregnenolone</t>
+  </si>
+  <si>
+    <t>CC(=O)[C@H]1CC[C@@H]2[C@@]1(CC[C@H]3[C@H]2CC=C4[C@@]3(CC[C@@H](C4)O)C)C</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/8955</t>
+  </si>
+  <si>
+    <t>proline</t>
+  </si>
+  <si>
+    <t>C1C[C@H](NC1)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/145742</t>
+  </si>
+  <si>
+    <t>propionyl-CoA</t>
+  </si>
+  <si>
+    <t>CCC(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/92753</t>
+  </si>
+  <si>
+    <t>pyruvate</t>
+  </si>
+  <si>
+    <t>CC(=O)C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/107735</t>
+  </si>
+  <si>
+    <t>ribose</t>
+  </si>
+  <si>
+    <t>C1[C@H]([C@H]([C@H](C(O1)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/10975657</t>
+  </si>
+  <si>
+    <t>ribose 5-phosphate</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H]([C@H](C=O)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/77982</t>
+  </si>
+  <si>
+    <t>ribulose 1,5-bisphosphate</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H](C(=O)COP(=O)(O)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/123658</t>
+  </si>
+  <si>
+    <t>ribulose 5-phosphate</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H](C(=O)CO)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/439184</t>
+  </si>
+  <si>
+    <t>serine</t>
+  </si>
+  <si>
+    <t>C([C@@H](C(=O)O)N)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5951</t>
+  </si>
+  <si>
+    <t>stearate 18:0</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCCCC(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/3033836</t>
+  </si>
+  <si>
+    <t>succinate</t>
+  </si>
+  <si>
+    <t>C(CC(=O)[O-])C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/160419</t>
+  </si>
+  <si>
+    <t>succinyl-CoA</t>
+  </si>
+  <si>
+    <t>CC(C)(COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)[C@H](C(=O)NCCC(=O)NCCSC(=O)CCC(=O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/92133</t>
+  </si>
+  <si>
+    <t>threonine</t>
+  </si>
+  <si>
+    <t>C[C@H]([C@@H](C(=O)O)N)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6288</t>
+  </si>
+  <si>
+    <t>thymine</t>
+  </si>
+  <si>
+    <t>CC1=CNC(=O)NC1=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1135</t>
+  </si>
+  <si>
+    <t>triacylglycerol</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCCCC(=O)OCC(COC(=O)CCCCCCCCCCCCCCCCC)OC(=O)CCCCCCCCCCCCCCCCC</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/11146</t>
+  </si>
+  <si>
+    <t>tryptophan</t>
+  </si>
+  <si>
+    <t>C1=CC=C2C(=C1)C(=CN2)C[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6305</t>
+  </si>
+  <si>
+    <t>tyrosine</t>
+  </si>
+  <si>
+    <t>C1=CC(=CC=C1C[C@@H](C(=O)O)N)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6057</t>
+  </si>
+  <si>
+    <t>uracil</t>
+  </si>
+  <si>
+    <t>C1=CNC(=O)NC1=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1174</t>
+  </si>
+  <si>
+    <t>urea</t>
+  </si>
+  <si>
+    <t>C(=O)(N)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1176</t>
+  </si>
+  <si>
+    <t>uric acid</t>
+  </si>
+  <si>
+    <t>C12=C(NC(=O)N1)NC(=O)NC2=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1175</t>
+  </si>
+  <si>
+    <t>valine</t>
+  </si>
+  <si>
+    <t>CC(C)[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6287</t>
+  </si>
+  <si>
+    <t>xanthine</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1)C(=O)NC(=O)N2</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1188</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P50457/entry</t>
+  </si>
+  <si>
+    <t>UniProt:A0A5K1G4Q8</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A5K1G4Q8/entry</t>
+  </si>
+  <si>
+    <t>glutamine-PRPP amidotransferase</t>
+  </si>
+  <si>
+    <t>EC 2.4.2.14</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0ABC9TXQ0/entry</t>
+  </si>
+  <si>
+    <t>UniProt:A0A383CLN5</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A383CLN5/entry</t>
+  </si>
+  <si>
+    <t>UniProt:A0A7R9TT23</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A7R9TT23/entry</t>
+  </si>
+  <si>
+    <t>EC 3.5.4.4</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A2P2C5B8/entry</t>
+  </si>
+  <si>
+    <t>EC 3.5.1.5</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9ZAA2/entry</t>
+  </si>
+  <si>
+    <t>β-ureidopropinonase</t>
+  </si>
+  <si>
+    <t>EC 3.5.1.6</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A1X1E9/entry</t>
+  </si>
+  <si>
+    <t>EC 5.3.1.9</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9X1A5/entry</t>
+  </si>
+  <si>
+    <t>UniProt:A0A382FER9</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A382FER9/entry</t>
+  </si>
+  <si>
+    <t>UniProt:T2IES6</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/T2IES6/entry</t>
+  </si>
+  <si>
+    <t>UniProt:C3Y3R7</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/C3Y3R7/entry</t>
+  </si>
+  <si>
+    <t>UniProt:A0A6J6LXB4</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A6J6LXB4/entry</t>
+  </si>
+  <si>
+    <t>UniProt:A0A650CPT8</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A650CPT8/entry</t>
+  </si>
+  <si>
+    <t>EC 4.1.1.49</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A075GVI4/entry</t>
+  </si>
+  <si>
+    <t>UniProt:A0A1T4RDE3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A1T4RDE3/entry</t>
+  </si>
+  <si>
+    <t>EC 3.1.3.11</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0ABC8EAI7/entry</t>
+  </si>
+  <si>
+    <t>ribose 5-phosphate isomerase; epimerase</t>
+  </si>
+  <si>
+    <t>EC 5.3.1.6</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q8RU73/entry</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A382IAB0/entry</t>
+  </si>
+  <si>
+    <t>EC 2.7.1.30</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A382MGP1/entry</t>
+  </si>
+  <si>
+    <t>carnitine acyltransferase I</t>
+  </si>
+  <si>
+    <t>UniProt:A0A336U2K3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A336U2K3/entry</t>
+  </si>
+  <si>
+    <t>EC 2.3.3.10</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A5M6C4H8/entry</t>
+  </si>
+  <si>
+    <t>EC 6.4.1.2</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q38970/entry</t>
+  </si>
+  <si>
+    <t>EC 1.2.-.-</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P9WIB7/entry</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A7L4WB00/entry</t>
+  </si>
+  <si>
+    <t>phosphdatidic acid phosphatase</t>
+  </si>
+  <si>
+    <t>UniProt:X5I2G6</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/X5I2G6/entry</t>
+  </si>
+  <si>
+    <t>mixed-function oxidase</t>
+  </si>
+  <si>
+    <t>EC 1.14.14.46</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P53554/entry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3764,6 +5842,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3773,7 +5867,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3781,13 +5875,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3806,9 +5931,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4122,8 +6263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7860E3-A355-D34C-A5F3-A08B9519F67D}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="39" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:M20"/>
+    <sheetView topLeftCell="J8" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17782,7 +19923,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -17847,4 +19988,3438 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C28FE6-12DC-304D-93DC-5CB9850FE05D}">
+  <dimension ref="A1:C245"/>
+  <sheetViews>
+    <sheetView topLeftCell="A173" zoomScale="50" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="198.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16">
+      <c r="A5" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16">
+      <c r="A6" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16">
+      <c r="A7" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16">
+      <c r="A8" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16">
+      <c r="A9" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16">
+      <c r="A10" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16">
+      <c r="A11" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16">
+      <c r="A12" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16">
+      <c r="A13" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16">
+      <c r="A14" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16">
+      <c r="A15" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16">
+      <c r="A16" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16">
+      <c r="A17" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16">
+      <c r="A18" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16">
+      <c r="A19" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16">
+      <c r="A20" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16">
+      <c r="A21" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16">
+      <c r="A22" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16">
+      <c r="A23" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16">
+      <c r="A24" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16">
+      <c r="A25" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16">
+      <c r="A26" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16">
+      <c r="A27" s="10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16">
+      <c r="A28" s="10" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16">
+      <c r="A29" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16">
+      <c r="A30" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16">
+      <c r="A31" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16">
+      <c r="A32" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16">
+      <c r="A33" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16">
+      <c r="A34" s="10" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16">
+      <c r="A35" s="10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16">
+      <c r="A36" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16">
+      <c r="A37" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16">
+      <c r="A38" s="10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16">
+      <c r="A39" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16">
+      <c r="A40" s="10" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16">
+      <c r="A41" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16">
+      <c r="A42" s="10" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16">
+      <c r="A43" s="10" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16">
+      <c r="A44" s="10" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16">
+      <c r="A45" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16">
+      <c r="A46" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16">
+      <c r="A47" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16">
+      <c r="A48" s="10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16">
+      <c r="A49" s="10" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16">
+      <c r="A50" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16">
+      <c r="A51" s="10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16">
+      <c r="A52" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16">
+      <c r="A53" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16">
+      <c r="A54" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16">
+      <c r="A55" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16">
+      <c r="A56" s="10" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16">
+      <c r="A57" s="10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16">
+      <c r="A58" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16">
+      <c r="A59" s="10" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16">
+      <c r="A60" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16">
+      <c r="A61" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16">
+      <c r="A62" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16">
+      <c r="A63" s="10" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16">
+      <c r="A64" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16">
+      <c r="A65" s="10" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16">
+      <c r="A66" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16">
+      <c r="A67" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16">
+      <c r="A68" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16">
+      <c r="A69" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16">
+      <c r="A70" s="10" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16">
+      <c r="A71" s="10" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16">
+      <c r="A72" s="10" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16">
+      <c r="A73" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16">
+      <c r="A74" s="10" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16">
+      <c r="A75" s="10" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16">
+      <c r="A76" s="10" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16">
+      <c r="A77" s="10" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16">
+      <c r="A78" s="10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16">
+      <c r="A79" s="10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16">
+      <c r="A80" s="10" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16">
+      <c r="A81" s="10" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16">
+      <c r="A82" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16">
+      <c r="A83" s="10" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16">
+      <c r="A84" s="10" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16">
+      <c r="A85" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16">
+      <c r="A86" s="10" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16">
+      <c r="A87" s="10" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16">
+      <c r="A88" s="10" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16">
+      <c r="A89" s="10" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16">
+      <c r="A90" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16">
+      <c r="A91" s="10" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16">
+      <c r="A92" s="10" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16">
+      <c r="A93" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16">
+      <c r="A94" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16">
+      <c r="A95" s="10" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16">
+      <c r="A96" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16">
+      <c r="A97" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16">
+      <c r="A98" s="10" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16">
+      <c r="A99" s="10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16">
+      <c r="A100" s="10" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16">
+      <c r="A101" s="10" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16">
+      <c r="A102" s="10" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16">
+      <c r="A103" s="10" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16">
+      <c r="A104" s="10" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16">
+      <c r="A105" s="10" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16">
+      <c r="A106" s="10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16">
+      <c r="A107" s="10" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16">
+      <c r="A108" s="10" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16">
+      <c r="A109" s="10" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16">
+      <c r="A110" s="10" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16">
+      <c r="A111" s="10" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16">
+      <c r="A112" s="10" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16">
+      <c r="A113" s="10" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16">
+      <c r="A114" s="10" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16">
+      <c r="A115" s="10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16">
+      <c r="A116" s="10" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16">
+      <c r="A117" s="10" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16">
+      <c r="A118" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16">
+      <c r="A119" s="10" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16">
+      <c r="A120" s="10" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16">
+      <c r="A121" s="10" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="16">
+      <c r="A122" s="10" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16">
+      <c r="A123" s="10" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16">
+      <c r="A124" s="10" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16">
+      <c r="A125" s="10" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16">
+      <c r="A126" s="10" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16">
+      <c r="A127" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16">
+      <c r="A128" s="10" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="16">
+      <c r="A129" s="10" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="16">
+      <c r="A130" s="10" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16">
+      <c r="A131" s="10" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16">
+      <c r="A132" s="10" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="16">
+      <c r="A133" s="10" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="16">
+      <c r="A134" s="10" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="16">
+      <c r="A135" s="10" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="16">
+      <c r="A136" s="10" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="16">
+      <c r="A137" s="10" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="16">
+      <c r="A138" s="10" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="16">
+      <c r="A139" s="10" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="16">
+      <c r="A140" s="10" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="16">
+      <c r="A141" s="10" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="16">
+      <c r="A142" s="10" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="16">
+      <c r="A143" s="10" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="16">
+      <c r="A144" s="10" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16">
+      <c r="A145" s="10" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="16">
+      <c r="A146" s="10" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="16">
+      <c r="A147" s="10" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="16">
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+    </row>
+    <row r="149" spans="1:3" ht="16">
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+    </row>
+    <row r="150" spans="1:3" ht="16">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+    </row>
+    <row r="151" spans="1:3" ht="16">
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+    </row>
+    <row r="152" spans="1:3" ht="16">
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+    </row>
+    <row r="153" spans="1:3" ht="16">
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+    </row>
+    <row r="154" spans="1:3" ht="16">
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+    </row>
+    <row r="155" spans="1:3" ht="16">
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+    </row>
+    <row r="156" spans="1:3" ht="16">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+    </row>
+    <row r="157" spans="1:3" ht="16">
+      <c r="A157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+    </row>
+    <row r="158" spans="1:3" ht="16">
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+    </row>
+    <row r="159" spans="1:3" ht="16">
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+    </row>
+    <row r="160" spans="1:3" ht="16">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+    </row>
+    <row r="161" spans="1:3" ht="16">
+      <c r="A161" s="10"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+    </row>
+    <row r="162" spans="1:3" ht="16">
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+    </row>
+    <row r="163" spans="1:3" ht="16">
+      <c r="A163" s="10"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="10"/>
+    </row>
+    <row r="164" spans="1:3" ht="16">
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+    </row>
+    <row r="165" spans="1:3" ht="16">
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+    </row>
+    <row r="166" spans="1:3" ht="16">
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+    </row>
+    <row r="167" spans="1:3" ht="16">
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+    </row>
+    <row r="168" spans="1:3" ht="16">
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+    </row>
+    <row r="169" spans="1:3" ht="16">
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+    </row>
+    <row r="170" spans="1:3" ht="16">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+    </row>
+    <row r="171" spans="1:3" ht="16">
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+    </row>
+    <row r="172" spans="1:3" ht="16">
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+    </row>
+    <row r="173" spans="1:3" ht="16">
+      <c r="A173" s="10"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+    </row>
+    <row r="174" spans="1:3" ht="16">
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+    </row>
+    <row r="175" spans="1:3" ht="16">
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+    </row>
+    <row r="176" spans="1:3" ht="16">
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+    </row>
+    <row r="177" spans="1:3" ht="16">
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+    </row>
+    <row r="178" spans="1:3" ht="16">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+    </row>
+    <row r="179" spans="1:3" ht="16">
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+    </row>
+    <row r="180" spans="1:3" ht="16">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+    </row>
+    <row r="181" spans="1:3" ht="16">
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+    </row>
+    <row r="182" spans="1:3" ht="16">
+      <c r="A182" s="10"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+    </row>
+    <row r="183" spans="1:3" ht="16">
+      <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+    </row>
+    <row r="184" spans="1:3" ht="16">
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+    </row>
+    <row r="185" spans="1:3" ht="16">
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
+    </row>
+    <row r="186" spans="1:3" ht="16">
+      <c r="A186" s="10"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+    </row>
+    <row r="187" spans="1:3" ht="16">
+      <c r="A187" s="10"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+    </row>
+    <row r="188" spans="1:3" ht="16">
+      <c r="A188" s="10"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+    </row>
+    <row r="189" spans="1:3" ht="16">
+      <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+    </row>
+    <row r="190" spans="1:3" ht="16">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+    </row>
+    <row r="191" spans="1:3" ht="16">
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+    </row>
+    <row r="192" spans="1:3" ht="16">
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+    </row>
+    <row r="193" spans="1:3" ht="16">
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+    </row>
+    <row r="194" spans="1:3" ht="16">
+      <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+    </row>
+    <row r="195" spans="1:3" ht="16">
+      <c r="A195" s="10"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+    </row>
+    <row r="196" spans="1:3" ht="16">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+    </row>
+    <row r="197" spans="1:3" ht="16">
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+    </row>
+    <row r="198" spans="1:3" ht="16">
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+    </row>
+    <row r="199" spans="1:3" ht="16">
+      <c r="A199" s="10"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+    </row>
+    <row r="200" spans="1:3" ht="16">
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+    </row>
+    <row r="201" spans="1:3" ht="16">
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+    </row>
+    <row r="202" spans="1:3" ht="16">
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+    </row>
+    <row r="203" spans="1:3" ht="16">
+      <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+    </row>
+    <row r="204" spans="1:3" ht="16">
+      <c r="A204" s="10"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
+    </row>
+    <row r="205" spans="1:3" ht="16">
+      <c r="A205" s="10"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="10"/>
+    </row>
+    <row r="206" spans="1:3" ht="16">
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+    </row>
+    <row r="207" spans="1:3" ht="16">
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+    </row>
+    <row r="208" spans="1:3" ht="16">
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+    </row>
+    <row r="209" spans="1:3" ht="16">
+      <c r="A209" s="10"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+    </row>
+    <row r="210" spans="1:3" ht="16">
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+    </row>
+    <row r="211" spans="1:3" ht="16">
+      <c r="A211" s="10"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+    </row>
+    <row r="212" spans="1:3" ht="16">
+      <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10"/>
+    </row>
+    <row r="213" spans="1:3" ht="16">
+      <c r="A213" s="10"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+    </row>
+    <row r="214" spans="1:3" ht="16">
+      <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+    </row>
+    <row r="215" spans="1:3" ht="16">
+      <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="10"/>
+    </row>
+    <row r="216" spans="1:3" ht="16">
+      <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+    </row>
+    <row r="217" spans="1:3" ht="16">
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="10"/>
+    </row>
+    <row r="218" spans="1:3" ht="16">
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+    </row>
+    <row r="219" spans="1:3" ht="16">
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+    </row>
+    <row r="220" spans="1:3" ht="16">
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+    </row>
+    <row r="221" spans="1:3" ht="16">
+      <c r="A221" s="10"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+    </row>
+    <row r="222" spans="1:3" ht="16">
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+    </row>
+    <row r="223" spans="1:3" ht="16">
+      <c r="A223" s="10"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="10"/>
+    </row>
+    <row r="224" spans="1:3" ht="16">
+      <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="10"/>
+    </row>
+    <row r="225" spans="1:3" ht="16">
+      <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="10"/>
+    </row>
+    <row r="226" spans="1:3" ht="16">
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+    </row>
+    <row r="227" spans="1:3" ht="16">
+      <c r="A227" s="10"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="10"/>
+    </row>
+    <row r="228" spans="1:3" ht="16">
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10"/>
+    </row>
+    <row r="229" spans="1:3" ht="16">
+      <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+    </row>
+    <row r="230" spans="1:3" ht="16">
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+    </row>
+    <row r="231" spans="1:3" ht="16">
+      <c r="A231" s="10"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="10"/>
+    </row>
+    <row r="232" spans="1:3" ht="16">
+      <c r="A232" s="10"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+    </row>
+    <row r="233" spans="1:3" ht="16">
+      <c r="A233" s="10"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="10"/>
+    </row>
+    <row r="234" spans="1:3" ht="16">
+      <c r="A234" s="10"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+    </row>
+    <row r="235" spans="1:3" ht="16">
+      <c r="A235" s="10"/>
+      <c r="B235" s="10"/>
+      <c r="C235" s="10"/>
+    </row>
+    <row r="236" spans="1:3" ht="16">
+      <c r="A236" s="10"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="10"/>
+    </row>
+    <row r="237" spans="1:3" ht="16">
+      <c r="A237" s="10"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="10"/>
+    </row>
+    <row r="238" spans="1:3" ht="16">
+      <c r="A238" s="10" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="16">
+      <c r="A239" s="10" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="16">
+      <c r="A240" s="10" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="16">
+      <c r="A241" s="10" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="16">
+      <c r="A242" s="10" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="16">
+      <c r="A243" s="10" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="16">
+      <c r="A244" s="10" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="16">
+      <c r="A245" s="10" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" display="https://pubchem.ncbi.nlm.nih.gov/compound/59" xr:uid="{2E404D73-8723-1643-84F7-12231325D8FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33D5E25-92BA-3E4A-8368-0F67AEF6B697}">
+  <dimension ref="A1:C122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="50" workbookViewId="0">
+      <selection sqref="A1:C104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="51.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="55.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16">
+      <c r="A5" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16">
+      <c r="A6" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16">
+      <c r="A7" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16">
+      <c r="A8" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16">
+      <c r="A9" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16">
+      <c r="A10" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16">
+      <c r="A11" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16">
+      <c r="A12" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16">
+      <c r="A13" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16">
+      <c r="A14" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16">
+      <c r="A15" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16">
+      <c r="A16" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16">
+      <c r="A17" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16">
+      <c r="A18" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16">
+      <c r="A19" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16">
+      <c r="A20" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16">
+      <c r="A21" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16">
+      <c r="A22" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16">
+      <c r="A23" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16">
+      <c r="A24" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16">
+      <c r="A25" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16">
+      <c r="A26" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16">
+      <c r="A27" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16">
+      <c r="A28" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16">
+      <c r="A29" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16">
+      <c r="A30" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16">
+      <c r="A31" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16">
+      <c r="A32" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16">
+      <c r="A33" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16">
+      <c r="A34" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16">
+      <c r="A35" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16">
+      <c r="A36" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16">
+      <c r="A37" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16">
+      <c r="A38" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16">
+      <c r="A39" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16">
+      <c r="A40" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16">
+      <c r="A41" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16">
+      <c r="A42" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16">
+      <c r="A43" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16">
+      <c r="A44" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16">
+      <c r="A45" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16">
+      <c r="A46" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16">
+      <c r="A47" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16">
+      <c r="A48" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16">
+      <c r="A49" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16">
+      <c r="A50" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16">
+      <c r="A51" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16">
+      <c r="A52" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16">
+      <c r="A53" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16">
+      <c r="A54" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16">
+      <c r="A55" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16">
+      <c r="A56" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16">
+      <c r="A57" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16">
+      <c r="A58" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16">
+      <c r="A59" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16">
+      <c r="A60" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16">
+      <c r="A61" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16">
+      <c r="A62" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16">
+      <c r="A63" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16">
+      <c r="A64" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16">
+      <c r="A65" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16">
+      <c r="A66" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16">
+      <c r="A67" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16">
+      <c r="A68" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16">
+      <c r="A69" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16">
+      <c r="A70" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16">
+      <c r="A71" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16">
+      <c r="A72" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16">
+      <c r="A73" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16">
+      <c r="A74" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16">
+      <c r="A75" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16">
+      <c r="A76" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16">
+      <c r="A77" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16">
+      <c r="A78" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16">
+      <c r="A79" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16">
+      <c r="A80" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16">
+      <c r="A81" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16">
+      <c r="A82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16">
+      <c r="A83" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16">
+      <c r="A84" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16">
+      <c r="A85" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16">
+      <c r="A86" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16">
+      <c r="A87" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16">
+      <c r="A88" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16">
+      <c r="A89" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16">
+      <c r="A90" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16">
+      <c r="A91" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16">
+      <c r="A92" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16">
+      <c r="A93" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16">
+      <c r="A94" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16">
+      <c r="A95" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16">
+      <c r="A96" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16">
+      <c r="A97" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16">
+      <c r="A98" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16">
+      <c r="A99" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16">
+      <c r="A100" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16">
+      <c r="A101" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16">
+      <c r="A102" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16">
+      <c r="A103" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16">
+      <c r="A104" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+    </row>
+    <row r="106" spans="1:3" ht="16">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+    </row>
+    <row r="107" spans="1:3" ht="16">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+    </row>
+    <row r="108" spans="1:3" ht="16">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+    </row>
+    <row r="109" spans="1:3" ht="16">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+    </row>
+    <row r="110" spans="1:3" ht="16">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+    </row>
+    <row r="111" spans="1:3" ht="16">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+    </row>
+    <row r="112" spans="1:3" ht="16">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+    </row>
+    <row r="113" spans="1:3" ht="16">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+    </row>
+    <row r="114" spans="1:3" ht="16">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+    </row>
+    <row r="115" spans="1:3" ht="16">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+    </row>
+    <row r="116" spans="1:3" ht="16">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+    </row>
+    <row r="117" spans="1:3" ht="16">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+    </row>
+    <row r="118" spans="1:3" ht="16">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="1:3" ht="16">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+    </row>
+    <row r="120" spans="1:3" ht="16">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="1:3" ht="16">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+    </row>
+    <row r="122" spans="1:3" ht="16">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>